--- a/analysis/mails_01/P02_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P02_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -69,6 +69,12 @@
     <t xml:space="preserve">2015-07-24</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6893</t>
+  </si>
+  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
@@ -90,30 +96,84 @@
     <t xml:space="preserve">MFD00498</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6116</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_2758</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00499</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5897</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_398</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_415</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00501</t>
   </si>
   <si>
+    <t xml:space="preserve">55.435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6184</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_683</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00502</t>
   </si>
   <si>
+    <t xml:space="preserve">55.3974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6605</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_mark_DJ</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00503</t>
   </si>
   <si>
+    <t xml:space="preserve">55.4165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.636</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_mark_ref</t>
   </si>
   <si>
@@ -123,6 +183,12 @@
     <t xml:space="preserve">2015-07-08</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2835</t>
+  </si>
+  <si>
     <t xml:space="preserve">holbæk sogn</t>
   </si>
   <si>
@@ -135,12 +201,24 @@
     <t xml:space="preserve">2015-07-06</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2547</t>
+  </si>
+  <si>
     <t xml:space="preserve">25_1358</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00506</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2676</t>
+  </si>
+  <si>
     <t xml:space="preserve">natural_soil</t>
   </si>
   <si>
@@ -153,54 +231,138 @@
     <t xml:space="preserve">MFD00507</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2531</t>
+  </si>
+  <si>
     <t xml:space="preserve">25_2041</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00508</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2915</t>
+  </si>
+  <si>
     <t xml:space="preserve">25_mark_ref</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00509</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2803</t>
+  </si>
+  <si>
     <t xml:space="preserve">25_mark_tør</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00510</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2933</t>
+  </si>
+  <si>
     <t xml:space="preserve">25_mark_våd</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingstrup sø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_158</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00512</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingstrup sø</t>
+    <t xml:space="preserve">57.2748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8313</t>
   </si>
   <si>
     <t xml:space="preserve">29_3114</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9001</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00514</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.774</t>
+  </si>
+  <si>
     <t xml:space="preserve">29_9002</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9003</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00516</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7837</t>
+  </si>
+  <si>
     <t xml:space="preserve">29_mark_DJ</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00517</t>
   </si>
   <si>
+    <t xml:space="preserve">57.3182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7835</t>
+  </si>
+  <si>
     <t xml:space="preserve">29_mark_ref</t>
   </si>
   <si>
@@ -210,6 +372,12 @@
     <t xml:space="preserve">2015-07-20</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4712</t>
+  </si>
+  <si>
     <t xml:space="preserve">kalø</t>
   </si>
   <si>
@@ -219,30 +387,72 @@
     <t xml:space="preserve">MFD00519</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4816</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_1148</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_199</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00521</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5002</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_2399</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00522</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4708</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_320</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00523</t>
   </si>
   <si>
+    <t xml:space="preserve">56.2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4658</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_754</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00524</t>
   </si>
   <si>
+    <t xml:space="preserve">56.296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4682</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_mark_ref</t>
   </si>
   <si>
@@ -252,39 +462,84 @@
     <t xml:space="preserve">2015-07-22</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7242</t>
+  </si>
+  <si>
     <t xml:space="preserve">nr. virum</t>
   </si>
   <si>
     <t xml:space="preserve">43_9006</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9007</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00527</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7168</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_9008</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00528</t>
   </si>
   <si>
+    <t xml:space="preserve">8.7169</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_9010</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00529</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7285</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_9011</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00530</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6735</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_9012</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00531</t>
   </si>
   <si>
+    <t xml:space="preserve">56.0342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7244</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_mark_ref</t>
   </si>
   <si>
@@ -294,6 +549,12 @@
     <t xml:space="preserve">2015-07-14</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9483</t>
+  </si>
+  <si>
     <t xml:space="preserve">oddense</t>
   </si>
   <si>
@@ -303,30 +564,72 @@
     <t xml:space="preserve">MFD00533</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9477</t>
+  </si>
+  <si>
     <t xml:space="preserve">48_187</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00534</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9691</t>
+  </si>
+  <si>
     <t xml:space="preserve">48_267</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00535</t>
   </si>
   <si>
+    <t xml:space="preserve">56.668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.912</t>
+  </si>
+  <si>
     <t xml:space="preserve">48_2720</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_53</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00537</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9119</t>
+  </si>
+  <si>
     <t xml:space="preserve">48_86</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00538</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8926</t>
+  </si>
+  <si>
     <t xml:space="preserve">48_mark_ref</t>
   </si>
   <si>
@@ -336,6 +639,12 @@
     <t xml:space="preserve">2015-07-29</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1579</t>
+  </si>
+  <si>
     <t xml:space="preserve">strø</t>
   </si>
   <si>
@@ -345,30 +654,72 @@
     <t xml:space="preserve">MFD00540</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2093</t>
+  </si>
+  <si>
     <t xml:space="preserve">60_140</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00541</t>
   </si>
   <si>
+    <t xml:space="preserve">55.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1587</t>
+  </si>
+  <si>
     <t xml:space="preserve">60_2941</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00542</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1633</t>
+  </si>
+  <si>
     <t xml:space="preserve">60_296</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_3140</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00544</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1557</t>
+  </si>
+  <si>
     <t xml:space="preserve">60_532</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00545</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2122</t>
+  </si>
+  <si>
     <t xml:space="preserve">60_mark_ref</t>
   </si>
   <si>
@@ -378,6 +729,12 @@
     <t xml:space="preserve">2015-07-30</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5326</t>
+  </si>
+  <si>
     <t xml:space="preserve">sømarke</t>
   </si>
   <si>
@@ -387,36 +744,72 @@
     <t xml:space="preserve">MFD00547</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5269</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_3104</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00548</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5312</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_3243</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00549</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5291</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_3939</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00550</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5139</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_4413</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00551</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5087</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_701</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00552</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5123</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_mark_ref</t>
   </si>
   <si>
@@ -426,6 +819,12 @@
     <t xml:space="preserve">2015-08-05</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1562</t>
+  </si>
+  <si>
     <t xml:space="preserve">vollerup</t>
   </si>
   <si>
@@ -435,30 +834,72 @@
     <t xml:space="preserve">MFD00554</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2302</t>
+  </si>
+  <si>
     <t xml:space="preserve">80_1484</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_1830</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00556</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1684</t>
+  </si>
+  <si>
     <t xml:space="preserve">80_25</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00557</t>
   </si>
   <si>
+    <t xml:space="preserve">54.9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1547</t>
+  </si>
+  <si>
     <t xml:space="preserve">80_57</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00558</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2132</t>
+  </si>
+  <si>
     <t xml:space="preserve">80_mark_ref</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00559</t>
   </si>
   <si>
+    <t xml:space="preserve">55.0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2129</t>
+  </si>
+  <si>
     <t xml:space="preserve">80_mark_våd</t>
   </si>
   <si>
@@ -468,6 +909,12 @@
     <t xml:space="preserve">2015-07-15</t>
   </si>
   <si>
+    <t xml:space="preserve">56.789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">sydthy (midt)</t>
   </si>
   <si>
@@ -480,103 +927,73 @@
     <t xml:space="preserve">2015-07-16</t>
   </si>
   <si>
+    <t xml:space="preserve">56.774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3851</t>
+  </si>
+  <si>
     <t xml:space="preserve">86_53</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_541</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00563</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2697</t>
+  </si>
+  <si>
     <t xml:space="preserve">86_90</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00564</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3679</t>
+  </si>
+  <si>
     <t xml:space="preserve">86_mark_DJ</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00565</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3127</t>
+  </si>
+  <si>
     <t xml:space="preserve">86_mark_ref</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00566</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3689</t>
+  </si>
+  <si>
     <t xml:space="preserve">86_mark_våd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roadside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_3140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_1830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_541</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -1037,38 +1454,38 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
-        <v>55.4058</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11.6893</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1076,38 +1493,38 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
-        <v>55.4376</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.6116</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1115,38 +1532,38 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="n">
-        <v>55.4373</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.5897</v>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1154,38 +1571,44 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
-        <v>55.435</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.6184</v>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1193,38 +1616,38 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
-        <v>55.3974</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.6605</v>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1232,2609 +1655,2583 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
-        <v>55.4165</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.636</v>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>56.5449</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10.2835</v>
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.5368</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10.2547</v>
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.5423</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10.2676</v>
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="n">
-        <v>56.5459</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.2531</v>
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.5403</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.2915</v>
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="n">
-        <v>56.5439</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.2803</v>
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56.5401</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10.2933</v>
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57.2748</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9.8313</v>
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="n">
-        <v>57.3124</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.774</v>
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.3168</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.7837</v>
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57.3182</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.7835</v>
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56.2924</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.4712</v>
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="n">
-        <v>56.2841</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10.4816</v>
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="n">
-        <v>56.3053</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10.5002</v>
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="n">
-        <v>56.2952</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10.4708</v>
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="n">
-        <v>56.2957</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10.4658</v>
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="n">
-        <v>56.296</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.4682</v>
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="n">
-        <v>56.0332</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8.7242</v>
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>40</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="n">
-        <v>56.0271</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8.7168</v>
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="n">
-        <v>56.0271</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8.7169</v>
+        <v>118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" t="n">
-        <v>56.0148</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8.7285</v>
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="n">
-        <v>56.0328</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8.6735</v>
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="n">
-        <v>56.0342</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.7244</v>
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="n">
-        <v>56.6699</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.9483</v>
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="n">
-        <v>56.6696</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8.9477</v>
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="n">
-        <v>56.6628</v>
-      </c>
-      <c r="E33" t="n">
-        <v>8.9691</v>
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" t="n">
-        <v>56.668</v>
-      </c>
-      <c r="E34" t="n">
-        <v>8.912</v>
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" t="n">
-        <v>56.6679</v>
-      </c>
-      <c r="E35" t="n">
-        <v>8.9119</v>
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" t="n">
-        <v>56.6511</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8.8926</v>
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" t="n">
-        <v>55.8942</v>
-      </c>
-      <c r="E37" t="n">
-        <v>12.1579</v>
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" t="n">
-        <v>55.9047</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.2093</v>
+        <v>177</v>
+      </c>
+      <c r="D38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" t="s">
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" t="n">
-        <v>55.893</v>
-      </c>
-      <c r="E39" t="n">
-        <v>12.1587</v>
+        <v>177</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" t="n">
-        <v>55.8903</v>
-      </c>
-      <c r="E40" t="n">
-        <v>12.1633</v>
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="n">
-        <v>55.8931</v>
-      </c>
-      <c r="E41" t="n">
-        <v>12.1557</v>
+        <v>177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
+      </c>
       <c r="M41" s="3"/>
       <c r="N41" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" t="n">
-        <v>55.9028</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12.2122</v>
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="I42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="n">
-        <v>54.9912</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12.5326</v>
+        <v>177</v>
+      </c>
+      <c r="D43" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" t="s">
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="n">
-        <v>54.9927</v>
-      </c>
-      <c r="E44" t="n">
-        <v>12.5269</v>
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" t="s">
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" t="n">
-        <v>54.9925</v>
-      </c>
-      <c r="E45" t="n">
-        <v>12.5312</v>
+        <v>207</v>
+      </c>
+      <c r="D45" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" t="s">
+        <v>214</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" t="n">
-        <v>54.9913</v>
-      </c>
-      <c r="E46" t="n">
-        <v>12.5291</v>
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s">
+        <v>218</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="O46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="n">
-        <v>54.9914</v>
-      </c>
-      <c r="E47" t="n">
-        <v>12.5139</v>
+        <v>207</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="n">
-        <v>54.9949</v>
-      </c>
-      <c r="E48" t="n">
-        <v>12.5087</v>
+        <v>207</v>
+      </c>
+      <c r="D48" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" t="n">
-        <v>54.9956</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.5123</v>
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" t="s">
+        <v>230</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="O49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" t="n">
-        <v>54.9754</v>
-      </c>
-      <c r="E50" t="n">
-        <v>9.1562</v>
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>234</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="O50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" t="n">
-        <v>54.9995</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9.2302</v>
+        <v>237</v>
+      </c>
+      <c r="D51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" t="s">
+        <v>239</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="O51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="n">
-        <v>54.9848</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.1684</v>
+        <v>237</v>
+      </c>
+      <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="O52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" t="n">
-        <v>54.9896</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9.1547</v>
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" t="s">
+        <v>248</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="O53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" t="n">
-        <v>55.0023</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.2132</v>
+        <v>237</v>
+      </c>
+      <c r="D54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" t="s">
+        <v>252</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I54" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="O54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" t="n">
-        <v>55.0035</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.2129</v>
+        <v>237</v>
+      </c>
+      <c r="D55" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" t="s">
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="I55" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="O55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" t="n">
-        <v>56.789</v>
-      </c>
-      <c r="E56" t="n">
-        <v>8.3</v>
+        <v>237</v>
+      </c>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" t="s">
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="I56" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="O56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" t="n">
-        <v>56.774</v>
-      </c>
-      <c r="E57" t="n">
-        <v>8.3851</v>
+        <v>237</v>
+      </c>
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" t="s">
+        <v>264</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="O57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" t="n">
-        <v>56.7808</v>
-      </c>
-      <c r="E58" t="n">
-        <v>8.2697</v>
+        <v>267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" t="s">
+        <v>269</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="O58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" t="n">
-        <v>56.7759</v>
-      </c>
-      <c r="E59" t="n">
-        <v>8.3679</v>
+        <v>267</v>
+      </c>
+      <c r="D59" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59" t="s">
+        <v>274</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="O59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="n">
-        <v>56.7744</v>
-      </c>
-      <c r="E60" t="n">
-        <v>8.3127</v>
+        <v>267</v>
+      </c>
+      <c r="D60" t="s">
+        <v>277</v>
+      </c>
+      <c r="E60" t="s">
+        <v>278</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
       <c r="H60" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" t="s">
+        <v>40</v>
+      </c>
       <c r="M60" s="3"/>
       <c r="N60" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="O60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="n">
-        <v>56.7777</v>
-      </c>
-      <c r="E61" t="n">
-        <v>8.3689</v>
+        <v>267</v>
+      </c>
+      <c r="D61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" t="s">
+        <v>282</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="O61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="n">
-        <v>55.3999</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.66</v>
+        <v>267</v>
+      </c>
+      <c r="D62" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" t="s">
+        <v>286</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" s="2"/>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
-      </c>
-      <c r="K62" t="s">
-        <v>167</v>
-      </c>
-      <c r="L62" t="s">
-        <v>168</v>
-      </c>
-      <c r="M62" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="N62" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="O62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" t="n">
-        <v>57.2822</v>
-      </c>
-      <c r="E63" t="n">
-        <v>9.8238</v>
+        <v>267</v>
+      </c>
+      <c r="D63" t="s">
+        <v>289</v>
+      </c>
+      <c r="E63" t="s">
+        <v>290</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2"/>
       <c r="H63" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>167</v>
-      </c>
-      <c r="K63" t="s">
-        <v>167</v>
-      </c>
-      <c r="L63" t="s">
-        <v>168</v>
-      </c>
-      <c r="M63" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
       <c r="N63" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="O63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" t="n">
-        <v>57.2957</v>
-      </c>
-      <c r="E64" t="n">
-        <v>9.7927</v>
+        <v>267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" t="s">
+        <v>294</v>
       </c>
       <c r="F64" t="s">
-        <v>165</v>
-      </c>
-      <c r="G64" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" s="2"/>
       <c r="H64" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>167</v>
-      </c>
-      <c r="K64" t="s">
-        <v>167</v>
-      </c>
-      <c r="L64" t="s">
-        <v>168</v>
-      </c>
-      <c r="M64" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
       <c r="N64" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="O64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" t="n">
-        <v>57.3193</v>
-      </c>
-      <c r="E65" t="n">
-        <v>9.7854</v>
+        <v>297</v>
+      </c>
+      <c r="D65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E65" t="s">
+        <v>299</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
-      </c>
-      <c r="G65" t="s">
-        <v>166</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G65" s="2"/>
       <c r="H65" t="s">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>167</v>
-      </c>
-      <c r="K65" t="s">
-        <v>167</v>
-      </c>
-      <c r="L65" t="s">
-        <v>168</v>
-      </c>
-      <c r="M65" t="s">
-        <v>168</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
       <c r="N65" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="O65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="n">
-        <v>56.3031</v>
-      </c>
-      <c r="E66" t="n">
-        <v>10.4956</v>
+        <v>303</v>
+      </c>
+      <c r="D66" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" t="s">
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" s="2"/>
       <c r="H66" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="I66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>167</v>
-      </c>
-      <c r="K66" t="s">
-        <v>167</v>
-      </c>
-      <c r="L66" t="s">
-        <v>168</v>
-      </c>
-      <c r="M66" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
       <c r="N66" t="s">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="O66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" t="n">
-        <v>56.0352</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8.7245</v>
+        <v>297</v>
+      </c>
+      <c r="D67" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" t="s">
+        <v>309</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="L67" t="s">
-        <v>168</v>
-      </c>
-      <c r="M67" t="s">
-        <v>168</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M67" s="3"/>
       <c r="N67" t="s">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="O67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" t="n">
-        <v>56.6721</v>
-      </c>
-      <c r="E68" t="n">
-        <v>8.9562</v>
+        <v>303</v>
+      </c>
+      <c r="D68" t="s">
+        <v>312</v>
+      </c>
+      <c r="E68" t="s">
+        <v>313</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" s="2"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>167</v>
-      </c>
-      <c r="K68" t="s">
-        <v>167</v>
-      </c>
-      <c r="L68" t="s">
-        <v>168</v>
-      </c>
-      <c r="M68" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
       <c r="N68" t="s">
-        <v>181</v>
+        <v>314</v>
       </c>
       <c r="O68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="n">
-        <v>55.8922</v>
-      </c>
-      <c r="E69" t="n">
-        <v>12.1588</v>
+        <v>303</v>
+      </c>
+      <c r="D69" t="s">
+        <v>316</v>
+      </c>
+      <c r="E69" t="s">
+        <v>317</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
-      </c>
-      <c r="G69" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" s="2"/>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>167</v>
-      </c>
-      <c r="K69" t="s">
-        <v>167</v>
-      </c>
-      <c r="L69" t="s">
-        <v>168</v>
-      </c>
-      <c r="M69" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
       <c r="N69" t="s">
-        <v>183</v>
+        <v>318</v>
       </c>
       <c r="O69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" t="n">
-        <v>54.9898</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9.2068</v>
+        <v>297</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" t="s">
+        <v>321</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" s="2"/>
       <c r="H70" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
-      </c>
-      <c r="K70" t="s">
-        <v>167</v>
-      </c>
-      <c r="L70" t="s">
-        <v>168</v>
-      </c>
-      <c r="M70" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
       <c r="N70" t="s">
-        <v>185</v>
+        <v>322</v>
       </c>
       <c r="O70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" t="n">
-        <v>56.7872</v>
-      </c>
-      <c r="E71" t="n">
-        <v>8.3045</v>
+        <v>303</v>
+      </c>
+      <c r="D71" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" t="s">
+        <v>325</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" t="s">
-        <v>166</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" s="2"/>
       <c r="H71" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>167</v>
-      </c>
-      <c r="K71" t="s">
-        <v>167</v>
-      </c>
-      <c r="L71" t="s">
-        <v>168</v>
-      </c>
-      <c r="M71" t="s">
-        <v>168</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
       <c r="N71" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="O71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3853,10 +4250,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -3864,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3">
@@ -3872,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -3880,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -3888,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -3896,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7">
@@ -3904,7 +4301,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8">
@@ -3912,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
@@ -3920,7 +4317,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
@@ -3928,7 +4325,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11">
@@ -3936,7 +4333,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12">
@@ -3944,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13">
@@ -3952,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14">
@@ -3960,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15">
@@ -3968,7 +4365,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P02_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P02_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -60,111 +60,726 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fjenneslevmagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poales, grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_2758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biowide - Ecospace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.3974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_mark_DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holbæk sogn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_1178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asterids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_2041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_mark_tør</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_mark_våd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingstrup sø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_3114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_1089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_1148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_2399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr. virum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oddense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_2720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_3140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sømarke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_2462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_4413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vollerup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_1167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_1830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_mark_våd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sydthy (midt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_mark_våd</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00497</t>
   </si>
   <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-24</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.4058</t>
   </si>
   <si>
     <t xml:space="preserve">11.6893</t>
   </si>
   <si>
-    <t xml:space="preserve">agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fjenneslevmagle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture</t>
+    <t xml:space="preserve">6233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent grass, Low yield</t>
   </si>
   <si>
     <t xml:space="preserve">12_262</t>
   </si>
   <si>
-    <t xml:space="preserve">Biowide - Ecospace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_2758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roadside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.3974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_mark_DJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00503</t>
   </si>
   <si>
@@ -174,33 +789,21 @@
     <t xml:space="preserve">11.636</t>
   </si>
   <si>
+    <t xml:space="preserve">6123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poales, Cereal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, Winter</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_mark_ref</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">holbæk sogn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_1178</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00505</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.5368</t>
   </si>
   <si>
@@ -219,105 +822,21 @@
     <t xml:space="preserve">10.2676</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
+    <t xml:space="preserve">7230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogs, mires and fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcareous fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaline fens</t>
   </si>
   <si>
     <t xml:space="preserve">25_1941</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_2041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_mark_tør</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_mark_våd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingstrup sø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_3114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9001</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00514</t>
   </si>
   <si>
@@ -330,18 +849,6 @@
     <t xml:space="preserve">29_9002</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9003</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00516</t>
   </si>
   <si>
@@ -351,6 +858,15 @@
     <t xml:space="preserve">9.7837</t>
   </si>
   <si>
+    <t xml:space="preserve">6841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch crop, Fodder radish, Flower</t>
+  </si>
+  <si>
     <t xml:space="preserve">29_mark_DJ</t>
   </si>
   <si>
@@ -366,72 +882,6 @@
     <t xml:space="preserve">29_mark_ref</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_1089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_1148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_2399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_320</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00523</t>
   </si>
   <si>
@@ -453,51 +903,27 @@
     <t xml:space="preserve">10.4682</t>
   </si>
   <si>
+    <t xml:space="preserve">6153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rye, Winter</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_mark_ref</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00525</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.0332</t>
   </si>
   <si>
     <t xml:space="preserve">8.7242</t>
   </si>
   <si>
-    <t xml:space="preserve">nr. virum</t>
-  </si>
-  <si>
     <t xml:space="preserve">43_9006</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9008</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00528</t>
   </si>
   <si>
@@ -507,18 +933,6 @@
     <t xml:space="preserve">43_9010</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9011</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00530</t>
   </si>
   <si>
@@ -540,87 +954,27 @@
     <t xml:space="preserve">8.7244</t>
   </si>
   <si>
+    <t xml:space="preserve">6143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barley, Winter</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_mark_ref</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00532</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.6699</t>
   </si>
   <si>
     <t xml:space="preserve">8.9483</t>
   </si>
   <si>
-    <t xml:space="preserve">oddense</t>
-  </si>
-  <si>
     <t xml:space="preserve">48_1278</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_2720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_86</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00538</t>
   </si>
   <si>
@@ -633,36 +987,6 @@
     <t xml:space="preserve">48_mark_ref</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_1153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_140</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00541</t>
   </si>
   <si>
@@ -675,72 +999,6 @@
     <t xml:space="preserve">60_2941</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_3140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sømarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_2462</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00547</t>
   </si>
   <si>
@@ -762,33 +1020,21 @@
     <t xml:space="preserve">12.5312</t>
   </si>
   <si>
+    <t xml:space="preserve">9940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest (non-habitattype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beech</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_3243</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_3939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_4413</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00551</t>
   </si>
   <si>
@@ -810,27 +1056,18 @@
     <t xml:space="preserve">12.5123</t>
   </si>
   <si>
+    <t xml:space="preserve">6512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superasterids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caryophyllales, Fodder beet</t>
+  </si>
+  <si>
     <t xml:space="preserve">69_mark_ref</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-08-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vollerup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_1167</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00554</t>
   </si>
   <si>
@@ -843,123 +1080,18 @@
     <t xml:space="preserve">80_1484</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_1830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_mark_våd</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00560</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.789</t>
   </si>
   <si>
     <t xml:space="preserve">8.3</t>
   </si>
   <si>
-    <t xml:space="preserve">sydthy (midt)</t>
-  </si>
-  <si>
     <t xml:space="preserve">86_135</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_90</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD00564</t>
   </si>
   <si>
@@ -970,30 +1102,6 @@
   </si>
   <si>
     <t xml:space="preserve">86_mark_DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_mark_våd</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -1069,17 +1177,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1099,11 +1202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,29 +1565,35 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1494,37 +1602,39 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1533,37 +1643,43 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1572,43 +1688,43 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1617,484 +1733,540 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -2103,10 +2275,10 @@
         <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
@@ -2117,2121 +2289,2401 @@
       <c r="L18" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
         <v>141</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" t="s">
-        <v>121</v>
-      </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="O29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
       <c r="H32" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
       <c r="H33" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" t="s">
+        <v>189</v>
+      </c>
       <c r="H35" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
       <c r="H36" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="N36" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="K37" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
       <c r="H38" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="O39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
       <c r="N40" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="O41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
       <c r="H42" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="N42" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s">
         <v>204</v>
       </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" t="s">
-        <v>180</v>
-      </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="O43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
       <c r="H44" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
       <c r="H45" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
       <c r="H46" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
       <c r="N46" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
       <c r="H47" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
       <c r="N47" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="O47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K48" t="s">
-        <v>39</v>
-      </c>
-      <c r="L48" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" t="s">
+        <v>252</v>
+      </c>
       <c r="H49" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" t="s">
+        <v>253</v>
+      </c>
       <c r="N49" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="O49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" t="s">
+        <v>258</v>
+      </c>
       <c r="H50" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" t="s">
+        <v>259</v>
+      </c>
+      <c r="M50" t="s">
+        <v>260</v>
+      </c>
       <c r="N50" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O50" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" t="s">
+        <v>252</v>
+      </c>
       <c r="H51" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" t="s">
+        <v>253</v>
+      </c>
       <c r="N51" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G52" t="s">
+        <v>269</v>
+      </c>
       <c r="H52" t="s">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="K52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" t="s">
+        <v>271</v>
+      </c>
+      <c r="M52" t="s">
+        <v>272</v>
+      </c>
       <c r="N52" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="O52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>252</v>
+      </c>
       <c r="H53" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
-      </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>253</v>
+      </c>
       <c r="N53" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" t="s">
+        <v>281</v>
+      </c>
       <c r="H54" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>282</v>
+      </c>
+      <c r="M54" t="s">
+        <v>283</v>
+      </c>
       <c r="N54" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="O54" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>258</v>
+      </c>
       <c r="H55" t="s">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>259</v>
+      </c>
+      <c r="M55" t="s">
+        <v>260</v>
+      </c>
       <c r="N55" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="F56" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" t="s">
+        <v>281</v>
+      </c>
       <c r="H56" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K56" t="s">
+        <v>25</v>
+      </c>
+      <c r="L56" t="s">
+        <v>282</v>
+      </c>
+      <c r="M56" t="s">
+        <v>283</v>
+      </c>
       <c r="N56" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="E57" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" t="s">
+        <v>296</v>
+      </c>
       <c r="H57" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K57" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" t="s">
+        <v>259</v>
+      </c>
+      <c r="M57" t="s">
+        <v>297</v>
+      </c>
       <c r="N57" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="O57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" t="s">
+        <v>252</v>
+      </c>
       <c r="H58" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>253</v>
+      </c>
       <c r="N58" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="O58" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
       <c r="H59" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" t="s">
+        <v>282</v>
+      </c>
+      <c r="M59" t="s">
+        <v>283</v>
+      </c>
       <c r="N59" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="O59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="H60" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
-      </c>
-      <c r="M60" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="M60" t="s">
+        <v>283</v>
+      </c>
       <c r="N60" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" t="s">
+        <v>313</v>
+      </c>
       <c r="H61" t="s">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" t="s">
+        <v>259</v>
+      </c>
+      <c r="M61" t="s">
+        <v>314</v>
+      </c>
       <c r="N61" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="O61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" t="s">
+        <v>252</v>
+      </c>
       <c r="H62" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>26</v>
+      </c>
+      <c r="M62" t="s">
+        <v>253</v>
+      </c>
       <c r="N62" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="O62" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" t="s">
+        <v>258</v>
+      </c>
       <c r="H63" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" t="s">
+        <v>259</v>
+      </c>
+      <c r="M63" t="s">
+        <v>260</v>
+      </c>
       <c r="N63" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="O63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="E64" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" t="s">
+        <v>281</v>
+      </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K64" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" t="s">
+        <v>282</v>
+      </c>
+      <c r="M64" t="s">
+        <v>283</v>
+      </c>
       <c r="N64" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>252</v>
+      </c>
       <c r="H65" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>69</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" t="s">
+        <v>253</v>
+      </c>
       <c r="N65" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="O65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G66" t="s">
+        <v>335</v>
+      </c>
       <c r="H66" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="K66" t="s">
+        <v>336</v>
+      </c>
+      <c r="L66" t="s">
+        <v>337</v>
+      </c>
+      <c r="M66" t="s">
+        <v>338</v>
+      </c>
       <c r="N66" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="O66" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="E67" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="H67" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K67" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L67" t="s">
-        <v>40</v>
-      </c>
-      <c r="M67" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="M67" t="s">
+        <v>283</v>
+      </c>
       <c r="N67" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="O67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" t="s">
+        <v>347</v>
+      </c>
       <c r="H68" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" t="s">
+        <v>348</v>
+      </c>
+      <c r="M68" t="s">
+        <v>349</v>
+      </c>
       <c r="N68" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="O68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="D69" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="E69" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" t="s">
+        <v>281</v>
+      </c>
       <c r="H69" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>25</v>
+      </c>
+      <c r="L69" t="s">
+        <v>282</v>
+      </c>
+      <c r="M69" t="s">
+        <v>283</v>
+      </c>
       <c r="N69" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="O69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="G70" t="s">
+        <v>269</v>
+      </c>
       <c r="H70" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="K70" t="s">
+        <v>270</v>
+      </c>
+      <c r="L70" t="s">
+        <v>271</v>
+      </c>
+      <c r="M70" t="s">
+        <v>272</v>
+      </c>
       <c r="N70" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="O70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="D71" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" t="s">
+        <v>281</v>
+      </c>
       <c r="H71" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>23</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="K71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L71" t="s">
+        <v>282</v>
+      </c>
+      <c r="M71" t="s">
+        <v>283</v>
+      </c>
       <c r="N71" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4250,10 +4702,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
@@ -4261,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
@@ -4269,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -4277,7 +4729,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
@@ -4285,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
@@ -4293,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7">
@@ -4301,7 +4753,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -4309,7 +4761,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9">
@@ -4317,7 +4769,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10">
@@ -4325,7 +4777,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11">
@@ -4333,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
@@ -4341,7 +4793,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13">
@@ -4349,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
@@ -4357,7 +4809,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15">
@@ -4365,7 +4817,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P02_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P02_1/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -114,6 +114,15 @@
     <t xml:space="preserve">5100</t>
   </si>
   <si>
+    <t xml:space="preserve">Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sclerophyllus scrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrub</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_398</t>
   </si>
   <si>
@@ -186,6 +195,570 @@
     <t xml:space="preserve">25_1178</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_mark_tør</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_mark_våd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingstrup sø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_3114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_1148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_2399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nr. virum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oddense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_2720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strø</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_3140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.8931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.9028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sømarke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland formations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_2462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vollerup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_1167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_1830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80_mark_våd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sydthy (midt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.7777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86_mark_våd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent grass, Low yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poales, Cereal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheat, Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_1358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.5423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural_soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogs, mires and fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcareous fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkaline fens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_1941</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00507</t>
   </si>
   <si>
@@ -195,208 +768,124 @@
     <t xml:space="preserve">10.2531</t>
   </si>
   <si>
-    <t xml:space="preserve">6403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asterids</t>
+    <t xml:space="preserve">6431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agricultural meadow (6430 subtype)</t>
   </si>
   <si>
     <t xml:space="preserve">25_2041</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_mark_tør</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_mark_våd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ingstrup sø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_3114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9003</t>
+    <t xml:space="preserve">MFD00514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_9002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catch crop, Fodder radish, Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_mark_DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_mark_ref</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00518</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.2924</t>
   </si>
   <si>
     <t xml:space="preserve">10.4712</t>
   </si>
   <si>
-    <t xml:space="preserve">kalø</t>
-  </si>
-  <si>
     <t xml:space="preserve">31_1089</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_1148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_2399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nr. virum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9008</t>
+    <t xml:space="preserve">MFD00523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rye, Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9010</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00529</t>
@@ -408,39 +897,66 @@
     <t xml:space="preserve">8.7285</t>
   </si>
   <si>
-    <t xml:space="preserve">natural_soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grassland formations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-natural tall-herb humid meadows</t>
+    <t xml:space="preserve">6411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural meadow (6410 subtype)</t>
   </si>
   <si>
     <t xml:space="preserve">43_9011</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD00530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_9012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barley, Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_1278</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD00533</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-07-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.6696</t>
   </si>
   <si>
     <t xml:space="preserve">8.9477</t>
   </si>
   <si>
-    <t xml:space="preserve">oddense</t>
-  </si>
-  <si>
     <t xml:space="preserve">48_187</t>
   </si>
   <si>
@@ -456,151 +972,64 @@
     <t xml:space="preserve">48_267</t>
   </si>
   <si>
-    <t xml:space="preserve">MFD00535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_2720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strø</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_1153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_3140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.8931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.9028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sømarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_2462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_3939</t>
+    <t xml:space="preserve">MFD00538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_mark_ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60_2941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_3104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD00548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.9925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest (non-habitattype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69_3243</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00550</t>
@@ -613,426 +1042,6 @@
   </si>
   <si>
     <t xml:space="preserve">69_4413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-08-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vollerup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_1167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_1830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80_mark_våd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sydthy (midt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.7777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86_mark_våd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanent grass, Low yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poales, Cereal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheat, Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_1358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.5423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bogs, mires and fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcareous fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkaline fens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25_1941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_9002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed crops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catch crop, Fodder radish, Flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_mark_DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rye, Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_9012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barley, Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_1278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.6511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48_mark_ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60_2941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_3104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD00548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.9925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest (non-habitattype)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69_3243</t>
   </si>
   <si>
     <t xml:space="preserve">MFD00551</t>
@@ -1620,13 +1629,17 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>28</v>
@@ -1634,7 +1647,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1643,16 +1656,16 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -1661,17 +1674,17 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -1679,7 +1692,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -1688,10 +1701,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1716,7 +1729,7 @@
       </c>
       <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
         <v>28</v>
@@ -1724,7 +1737,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1733,16 +1746,16 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -1759,7 +1772,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
@@ -1767,19 +1780,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1788,19 +1801,23 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
         <v>28</v>
@@ -1808,28 +1825,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
@@ -1840,12 +1857,10 @@
       <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
-        <v>61</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
@@ -1853,28 +1868,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
@@ -1885,10 +1900,12 @@
       <c r="K9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O9" t="s">
         <v>28</v>
@@ -1896,28 +1913,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -1928,12 +1945,10 @@
       <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
         <v>28</v>
@@ -1941,42 +1956,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
         <v>28</v>
@@ -1984,44 +2001,44 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O12" t="s">
         <v>28</v>
@@ -2029,44 +2046,44 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
       <c r="I13" t="s">
         <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
         <v>28</v>
@@ -2074,44 +2091,44 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O14" t="s">
         <v>28</v>
@@ -2119,44 +2136,44 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
@@ -2164,44 +2181,44 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>100</v>
-      </c>
       <c r="I16" t="s">
         <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
         <v>28</v>
@@ -2209,28 +2226,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
         <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -2241,12 +2258,10 @@
       <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="s">
-        <v>72</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" t="s">
         <v>28</v>
@@ -2254,44 +2269,44 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>100</v>
-      </c>
       <c r="I18" t="s">
         <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s">
         <v>28</v>
@@ -2299,42 +2314,44 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
         <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O19" t="s">
         <v>28</v>
@@ -2342,44 +2359,44 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
         <v>115</v>
       </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" t="s">
-        <v>100</v>
-      </c>
       <c r="I20" t="s">
         <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
         <v>28</v>
@@ -2387,44 +2404,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
         <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
         <v>28</v>
@@ -2432,40 +2447,44 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
         <v>125</v>
       </c>
-      <c r="E22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>122</v>
-      </c>
       <c r="I22" t="s">
         <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O22" t="s">
         <v>28</v>
@@ -2473,44 +2492,44 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O23" t="s">
         <v>28</v>
@@ -2518,28 +2537,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>138</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
         <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" t="s">
-        <v>141</v>
       </c>
       <c r="I24" t="s">
         <v>23</v>
@@ -2551,11 +2570,11 @@
         <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O24" t="s">
         <v>28</v>
@@ -2563,28 +2582,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
         <v>143</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
         <v>23</v>
@@ -2596,11 +2615,11 @@
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O25" t="s">
         <v>28</v>
@@ -2608,28 +2627,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
         <v>147</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>149</v>
-      </c>
       <c r="F26" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
         <v>23</v>
@@ -2640,10 +2659,12 @@
       <c r="K26" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" t="s">
+        <v>69</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O26" t="s">
         <v>28</v>
@@ -2651,44 +2672,44 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
         <v>151</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" t="s">
-        <v>153</v>
-      </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I27" t="s">
         <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O27" t="s">
         <v>28</v>
@@ -2696,19 +2717,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" t="s">
         <v>155</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" t="s">
-        <v>157</v>
       </c>
       <c r="F28" t="s">
         <v>20</v>
@@ -2717,19 +2738,23 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O28" t="s">
         <v>28</v>
@@ -2737,28 +2762,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
         <v>159</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" t="s">
-        <v>162</v>
-      </c>
       <c r="F29" t="s">
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
@@ -2769,12 +2794,10 @@
       <c r="K29" t="s">
         <v>25</v>
       </c>
-      <c r="L29" t="s">
-        <v>72</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O29" t="s">
         <v>28</v>
@@ -2782,41 +2805,39 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
         <v>165</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>166</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
         <v>167</v>
       </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" t="s">
         <v>168</v>
@@ -2833,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
         <v>170</v>
@@ -2845,23 +2866,21 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" t="s">
-        <v>72</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" t="s">
         <v>172</v>
@@ -2878,38 +2897,38 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O32" t="s">
         <v>28</v>
@@ -2917,40 +2936,44 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
         <v>177</v>
       </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s">
-        <v>163</v>
-      </c>
       <c r="I33" t="s">
         <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" t="s">
+        <v>43</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O33" t="s">
         <v>28</v>
@@ -2958,42 +2981,44 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O34" t="s">
         <v>28</v>
@@ -3001,28 +3026,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -3033,10 +3058,12 @@
       <c r="K35" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O35" t="s">
         <v>28</v>
@@ -3044,28 +3071,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
         <v>192</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>193</v>
       </c>
-      <c r="E36" t="s">
-        <v>194</v>
-      </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -3079,7 +3106,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O36" t="s">
         <v>28</v>
@@ -3087,44 +3114,42 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
         <v>196</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>197</v>
       </c>
-      <c r="E37" t="s">
-        <v>198</v>
-      </c>
       <c r="F37" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
-      </c>
-      <c r="L37" t="s">
-        <v>135</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O37" t="s">
         <v>28</v>
@@ -3132,44 +3157,44 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
         <v>200</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>201</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>202</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
         <v>203</v>
       </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s">
-        <v>204</v>
-      </c>
       <c r="I38" t="s">
         <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L38" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O38" t="s">
         <v>28</v>
@@ -3177,13 +3202,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
         <v>206</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>201</v>
       </c>
       <c r="D39" t="s">
         <v>207</v>
@@ -3192,25 +3217,25 @@
         <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s">
@@ -3228,7 +3253,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -3243,16 +3268,20 @@
         <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s">
         <v>213</v>
@@ -3269,7 +3298,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D41" t="s">
         <v>215</v>
@@ -3281,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -3295,9 +3324,7 @@
       <c r="K41" t="s">
         <v>25</v>
       </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" t="s">
         <v>217</v>
@@ -3314,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
         <v>219</v>
@@ -3326,10 +3353,10 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -3357,7 +3384,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>223</v>
@@ -3369,10 +3396,10 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
         <v>23</v>
@@ -3383,10 +3410,14 @@
       <c r="K43" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>226</v>
+      </c>
       <c r="N43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O43" t="s">
         <v>28</v>
@@ -3394,28 +3425,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
@@ -3423,11 +3454,17 @@
       <c r="J44" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>232</v>
+      </c>
+      <c r="M44" t="s">
+        <v>233</v>
+      </c>
       <c r="N44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O44" t="s">
         <v>28</v>
@@ -3435,44 +3472,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
         <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>226</v>
+      </c>
       <c r="N45" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O45" t="s">
         <v>28</v>
@@ -3480,40 +3519,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="I46" t="s">
         <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="K46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46" t="s">
+        <v>245</v>
+      </c>
+      <c r="M46" t="s">
+        <v>246</v>
+      </c>
       <c r="N46" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O46" t="s">
         <v>28</v>
@@ -3521,42 +3566,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>251</v>
       </c>
       <c r="H47" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="L47" t="s">
+        <v>252</v>
+      </c>
+      <c r="M47" t="s">
+        <v>253</v>
+      </c>
       <c r="N47" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="O47" t="s">
         <v>28</v>
@@ -3564,28 +3613,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
         <v>23</v>
@@ -3596,10 +3645,14 @@
       <c r="K48" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>226</v>
+      </c>
       <c r="N48" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O48" t="s">
         <v>28</v>
@@ -3607,28 +3660,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
         <v>23</v>
@@ -3640,13 +3693,13 @@
         <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="M49" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="N49" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="O49" t="s">
         <v>28</v>
@@ -3654,28 +3707,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
         <v>23</v>
@@ -3687,13 +3740,13 @@
         <v>25</v>
       </c>
       <c r="L50" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="M50" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="N50" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="O50" t="s">
         <v>28</v>
@@ -3701,46 +3754,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E51" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" t="s">
         <v>252</v>
-      </c>
-      <c r="H51" t="s">
-        <v>55</v>
-      </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" t="s">
-        <v>26</v>
       </c>
       <c r="M51" t="s">
         <v>253</v>
       </c>
       <c r="N51" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O51" t="s">
         <v>28</v>
@@ -3748,46 +3801,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="K52" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="L52" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N52" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="O52" t="s">
         <v>28</v>
@@ -3795,28 +3848,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
@@ -3828,13 +3881,13 @@
         <v>25</v>
       </c>
       <c r="L53" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="M53" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="N53" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O53" t="s">
         <v>28</v>
@@ -3842,28 +3895,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -3875,13 +3928,13 @@
         <v>25</v>
       </c>
       <c r="L54" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="M54" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="N54" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O54" t="s">
         <v>28</v>
@@ -3889,28 +3942,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
@@ -3922,13 +3975,13 @@
         <v>25</v>
       </c>
       <c r="L55" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M55" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O55" t="s">
         <v>28</v>
@@ -3936,46 +3989,46 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E56" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I56" t="s">
         <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="M56" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="N56" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O56" t="s">
         <v>28</v>
@@ -3983,28 +4036,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I57" t="s">
         <v>23</v>
@@ -4016,13 +4069,13 @@
         <v>25</v>
       </c>
       <c r="L57" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M57" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="N57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O57" t="s">
         <v>28</v>
@@ -4030,28 +4083,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E58" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -4063,13 +4116,13 @@
         <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="N58" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O58" t="s">
         <v>28</v>
@@ -4077,28 +4130,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>225</v>
+      </c>
+      <c r="H59" t="s">
         <v>125</v>
-      </c>
-      <c r="E59" t="s">
-        <v>304</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>281</v>
-      </c>
-      <c r="H59" t="s">
-        <v>122</v>
       </c>
       <c r="I59" t="s">
         <v>23</v>
@@ -4110,13 +4163,13 @@
         <v>25</v>
       </c>
       <c r="L59" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="M59" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="N59" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O59" t="s">
         <v>28</v>
@@ -4124,46 +4177,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E60" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
         <v>20</v>
       </c>
       <c r="G60" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="M60" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O60" t="s">
         <v>28</v>
@@ -4171,46 +4224,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
         <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M61" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="N61" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O61" t="s">
         <v>28</v>
@@ -4218,28 +4271,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F62" t="s">
         <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I62" t="s">
         <v>23</v>
@@ -4251,13 +4304,13 @@
         <v>25</v>
       </c>
       <c r="L62" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="N62" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O62" t="s">
         <v>28</v>
@@ -4265,28 +4318,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E63" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
       <c r="G63" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I63" t="s">
         <v>23</v>
@@ -4298,13 +4351,13 @@
         <v>25</v>
       </c>
       <c r="L63" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M63" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N63" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O63" t="s">
         <v>28</v>
@@ -4312,28 +4365,28 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="H64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I64" t="s">
         <v>23</v>
@@ -4345,13 +4398,13 @@
         <v>25</v>
       </c>
       <c r="L64" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="M64" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="N64" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O64" t="s">
         <v>28</v>
@@ -4359,46 +4412,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="I65" t="s">
         <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K65" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="L65" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="M65" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="N65" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="O65" t="s">
         <v>28</v>
@@ -4406,46 +4459,46 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E66" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="G66" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="H66" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="I66" t="s">
         <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="K66" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="M66" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="N66" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O66" t="s">
         <v>28</v>
@@ -4453,28 +4506,28 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E67" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H67" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="I67" t="s">
         <v>23</v>
@@ -4486,13 +4539,13 @@
         <v>25</v>
       </c>
       <c r="L67" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M67" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N67" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O67" t="s">
         <v>28</v>
@@ -4500,28 +4553,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H68" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="I68" t="s">
         <v>23</v>
@@ -4533,13 +4586,13 @@
         <v>25</v>
       </c>
       <c r="L68" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M68" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N68" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O68" t="s">
         <v>28</v>
@@ -4547,28 +4600,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E69" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H69" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="I69" t="s">
         <v>23</v>
@@ -4580,13 +4633,13 @@
         <v>25</v>
       </c>
       <c r="L69" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M69" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N69" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O69" t="s">
         <v>28</v>
@@ -4594,46 +4647,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E70" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="G70" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="I70" t="s">
         <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="K70" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="L70" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M70" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="N70" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O70" t="s">
         <v>28</v>
@@ -4641,28 +4694,28 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D71" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E71" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H71" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="I71" t="s">
         <v>23</v>
@@ -4674,13 +4727,13 @@
         <v>25</v>
       </c>
       <c r="L71" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M71" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="N71" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="O71" t="s">
         <v>28</v>
@@ -4702,10 +4755,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -4713,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
@@ -4721,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
@@ -4729,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
@@ -4737,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6">
@@ -4745,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7">
@@ -4753,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8">
@@ -4761,7 +4814,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
@@ -4769,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10">
@@ -4777,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11">
@@ -4785,7 +4838,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12">
@@ -4793,7 +4846,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13">
@@ -4801,7 +4854,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
@@ -4809,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15">
@@ -4817,7 +4870,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
